--- a/2022/Samsung/February/14.02.2022/SAMSUNG Bank Statement FEB-2022.xlsx
+++ b/2022/Samsung/February/14.02.2022/SAMSUNG Bank Statement FEB-2022.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCU\2022\SAMSUNG\February\14.02.2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88017\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="152">
   <si>
     <t>Date</t>
   </si>
@@ -582,16 +582,10 @@
     <t>Molla Mobile</t>
   </si>
   <si>
-    <t>Tutul</t>
-  </si>
-  <si>
     <t>DSR</t>
   </si>
   <si>
     <t>J=Molla Mobile</t>
-  </si>
-  <si>
-    <t>Date:13.02.2022</t>
   </si>
   <si>
     <t>13.02.2022</t>
@@ -601,6 +595,15 @@
   </si>
   <si>
     <t>RK Brac To RTGS NRB Boss ACC</t>
+  </si>
+  <si>
+    <t>Tipu Boss</t>
+  </si>
+  <si>
+    <t>Tab A7 Lite</t>
+  </si>
+  <si>
+    <t>Date:14.02.2022</t>
   </si>
 </sst>
 </file>
@@ -5325,7 +5328,7 @@
     <row r="16" spans="1:7">
       <c r="A16" s="312"/>
       <c r="B16" s="26" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C16" s="252">
         <v>0</v>
@@ -5343,7 +5346,7 @@
     <row r="17" spans="1:7">
       <c r="A17" s="312"/>
       <c r="B17" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C17" s="252">
         <v>500000</v>
@@ -5356,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="281" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G17" s="2"/>
     </row>
@@ -6153,9 +6156,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X320"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6688,7 +6691,7 @@
     </row>
     <row r="16" spans="1:24" s="13" customFormat="1">
       <c r="A16" s="74" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B16" s="82"/>
       <c r="C16" s="75"/>
@@ -6720,7 +6723,7 @@
     </row>
     <row r="17" spans="1:23" s="13" customFormat="1">
       <c r="A17" s="74" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B17" s="82">
         <v>500</v>
@@ -9296,11 +9299,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
@@ -9315,6 +9313,11 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9327,8 +9330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView topLeftCell="A107" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -10874,7 +10877,7 @@
     </row>
     <row r="15" spans="1:97">
       <c r="A15" s="182" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B15" s="48">
         <v>340010</v>
@@ -10983,13 +10986,21 @@
       <c r="CS15" s="138"/>
     </row>
     <row r="16" spans="1:97">
-      <c r="A16" s="182"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="48"/>
+      <c r="A16" s="182" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" s="48">
+        <v>215050</v>
+      </c>
+      <c r="C16" s="51">
+        <v>208370</v>
+      </c>
+      <c r="D16" s="48">
+        <v>680</v>
+      </c>
       <c r="E16" s="48">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>209050</v>
       </c>
       <c r="F16" s="233"/>
       <c r="G16" s="244"/>
@@ -12722,23 +12733,23 @@
       </c>
       <c r="B33" s="257">
         <f>SUM(B5:B32)</f>
-        <v>4916190</v>
+        <v>5131240</v>
       </c>
       <c r="C33" s="258">
         <f>SUM(C5:C32)</f>
-        <v>2469795</v>
+        <v>2678165</v>
       </c>
       <c r="D33" s="257">
         <f>SUM(D5:D32)</f>
-        <v>15435</v>
+        <v>16115</v>
       </c>
       <c r="E33" s="257">
         <f>SUM(E5:E32)</f>
-        <v>2485230</v>
+        <v>2694280</v>
       </c>
       <c r="F33" s="257">
         <f>B33-E33</f>
-        <v>2430960</v>
+        <v>2436960</v>
       </c>
       <c r="G33" s="259"/>
       <c r="H33" s="139"/>
@@ -13152,7 +13163,7 @@
         <v>100</v>
       </c>
       <c r="C37" s="128" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D37" s="207">
         <v>400</v>
@@ -13258,16 +13269,16 @@
         <v>112</v>
       </c>
       <c r="B38" s="119" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C38" s="118" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D38" s="208">
-        <v>1000</v>
+        <v>17920</v>
       </c>
       <c r="E38" s="176" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="F38" s="132"/>
       <c r="G38" s="139"/>
@@ -14313,7 +14324,7 @@
         <v>200000</v>
       </c>
       <c r="E48" s="180" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F48" s="132"/>
       <c r="G48" s="138"/>
@@ -14423,7 +14434,7 @@
         <v>89240</v>
       </c>
       <c r="E49" s="180" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F49" s="132"/>
       <c r="G49" s="138"/>
@@ -14530,10 +14541,10 @@
       </c>
       <c r="C50" s="118"/>
       <c r="D50" s="211">
-        <v>214150</v>
+        <v>200000</v>
       </c>
       <c r="E50" s="179" t="s">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="F50" s="132"/>
       <c r="G50" s="138"/>
@@ -14750,10 +14761,10 @@
       </c>
       <c r="C52" s="118"/>
       <c r="D52" s="211">
-        <v>237590</v>
+        <v>269840</v>
       </c>
       <c r="E52" s="179" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F52" s="132"/>
       <c r="G52" s="138"/>
@@ -14970,10 +14981,10 @@
       </c>
       <c r="C54" s="118"/>
       <c r="D54" s="211">
-        <v>148590</v>
+        <v>122180</v>
       </c>
       <c r="E54" s="178" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="F54" s="132"/>
       <c r="G54" s="138"/>
@@ -15080,10 +15091,10 @@
       </c>
       <c r="C55" s="118"/>
       <c r="D55" s="211">
-        <v>172610</v>
+        <v>170000</v>
       </c>
       <c r="E55" s="180" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="F55" s="132"/>
       <c r="G55" s="138"/>
@@ -15303,7 +15314,7 @@
         <v>145070</v>
       </c>
       <c r="E57" s="178" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F57" s="132"/>
       <c r="G57" s="138"/>
@@ -21675,7 +21686,7 @@
       <c r="C119" s="332"/>
       <c r="D119" s="214">
         <f>SUM(D37:D118)</f>
-        <v>2430960</v>
+        <v>2436960</v>
       </c>
       <c r="E119" s="206"/>
       <c r="F119" s="138"/>
@@ -21882,7 +21893,7 @@
       <c r="C121" s="329"/>
       <c r="D121" s="214">
         <f>D119+M121</f>
-        <v>2430960</v>
+        <v>2436960</v>
       </c>
       <c r="E121" s="206"/>
       <c r="F121" s="138"/>
@@ -33113,8 +33124,8 @@
   </sheetPr>
   <dimension ref="A1:Q218"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:I13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -33153,7 +33164,7 @@
     </row>
     <row r="3" spans="1:17" ht="23.25">
       <c r="A3" s="339" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B3" s="340"/>
       <c r="C3" s="340"/>
@@ -33198,14 +33209,14 @@
         <v>66</v>
       </c>
       <c r="B5" s="286">
-        <v>15500000</v>
+        <v>15000000</v>
       </c>
       <c r="C5" s="40"/>
       <c r="D5" s="40" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="288">
-        <v>10216380</v>
+        <v>10069310</v>
       </c>
       <c r="F5" s="36"/>
       <c r="G5" s="269"/>
@@ -33225,7 +33236,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="248">
-        <v>120370</v>
+        <v>125650</v>
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="40" t="s">
@@ -33259,7 +33270,7 @@
         <v>79</v>
       </c>
       <c r="E7" s="290">
-        <v>403419</v>
+        <v>111789</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="261"/>
@@ -33321,14 +33332,14 @@
         <v>14</v>
       </c>
       <c r="B10" s="248">
-        <v>16035</v>
+        <v>16715</v>
       </c>
       <c r="C10" s="41"/>
       <c r="D10" s="40" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="290">
-        <v>2430960</v>
+        <v>2436960</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="238"/>
@@ -33376,14 +33387,14 @@
       </c>
       <c r="B12" s="249">
         <f>B6+B7+B8-B10</f>
-        <v>300139</v>
+        <v>304739</v>
       </c>
       <c r="C12" s="41"/>
       <c r="D12" s="40" t="s">
         <v>76</v>
       </c>
       <c r="E12" s="292">
-        <v>2661430</v>
+        <v>2598730</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>45</v>
@@ -33448,7 +33459,7 @@
       </c>
       <c r="B15" s="250">
         <f>B5+B6+B7+B8-B10-B14</f>
-        <v>15800139</v>
+        <v>15304739</v>
       </c>
       <c r="C15" s="41"/>
       <c r="D15" s="41" t="s">
@@ -33456,7 +33467,7 @@
       </c>
       <c r="E15" s="293">
         <f>E5+E6+E10+E11+E12+E7+E13</f>
-        <v>15800139</v>
+        <v>15304739</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="112">
@@ -33725,7 +33736,7 @@
     </row>
     <row r="26" spans="1:17" ht="22.5" thickBot="1">
       <c r="A26" s="304" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B26" s="305">
         <v>50000</v>
